--- a/categorias.xlsx
+++ b/categorias.xlsx
@@ -5,33 +5,30 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tvglobocorp-my.sharepoint.com/personal/rcarnevale_g_globo/Documents/2025/Ontologia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcarnevale\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{757813BE-3771-42B0-AF82-4D64FE3EE185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{332B21BC-8C5C-46B0-BB25-5AAAF1532A9F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D466556-6A75-4ED6-A22B-572FFB7B80D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elements!$A$1:$C$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elements!$A$1:$B$71</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="128">
   <si>
     <t>Artefato - Objetos do cotidiano</t>
   </si>
   <si>
-    <t>Conceitos Gerais</t>
-  </si>
-  <si>
     <t>Evento / Processo / Atividade - Atividades Esportivas</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t xml:space="preserve"> Atributos e Características</t>
   </si>
   <si>
-    <t>Subclasse1</t>
-  </si>
-  <si>
     <t>Lugares</t>
   </si>
   <si>
@@ -411,9 +405,6 @@
   </si>
   <si>
     <t>Pessoas</t>
-  </si>
-  <si>
-    <t>Conceitos Individuais</t>
   </si>
   <si>
     <t>Eventos - Desastres (Climáticos) -  Casos Jornalísticos</t>
@@ -472,21 +463,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26B7CA65-3A07-4405-9BE2-E22E83DCAC8C}" name="Tabela1" displayName="Tabela1" ref="A1:C71" totalsRowShown="0">
-  <autoFilter ref="A1:C71" xr:uid="{26B7CA65-3A07-4405-9BE2-E22E83DCAC8C}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Conceitos Gerais"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C71">
-    <sortCondition ref="B1:B71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26B7CA65-3A07-4405-9BE2-E22E83DCAC8C}" name="Tabela1" displayName="Tabela1" ref="A1:B71" totalsRowShown="0">
+  <autoFilter ref="A1:B71" xr:uid="{26B7CA65-3A07-4405-9BE2-E22E83DCAC8C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B71">
+    <sortCondition ref="A1:A71"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0ADB016D-BF20-4953-89D7-208A3D305310}" name="Classe"/>
-    <tableColumn id="2" xr3:uid="{ACA86770-E80C-4B12-B07A-1A2BBE4F2935}" name="Subclasse"/>
-    <tableColumn id="3" xr3:uid="{5E7F1E04-6C93-453E-9927-59B1E5772650}" name="Subclasse1"/>
+  <tableColumns count="2">
+    <tableColumn id="2" xr3:uid="{ACA86770-E80C-4B12-B07A-1A2BBE4F2935}" name="Classe"/>
+    <tableColumn id="3" xr3:uid="{5E7F1E04-6C93-453E-9927-59B1E5772650}" name="Subclasse"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -809,795 +793,581 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>106</v>
       </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>81</v>
       </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
         <v>116</v>
       </c>
-      <c r="C24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
       </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>79</v>
       </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
         <v>77</v>
       </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
         <v>87</v>
       </c>
-      <c r="C68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1616,359 +1386,359 @@
       <selection activeCell="A70" sqref="A1:A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/categorias.xlsx
+++ b/categorias.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcarnevale\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7E09CA-1459-4E1C-A587-1BA1AD1AABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E78114D-130E-43A6-BFF7-C97B67C70BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elements!$A$1:$B$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elements!$A$1:$B$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
-  <si>
-    <t>Fenômeno</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="171">
   <si>
     <t>Classe</t>
   </si>
@@ -47,154 +44,511 @@
     <t>Subclasse</t>
   </si>
   <si>
-    <t>Objetos do cotidiano</t>
-  </si>
-  <si>
-    <t>Tipos de Fenômenos</t>
-  </si>
-  <si>
-    <t>Artefato</t>
-  </si>
-  <si>
-    <t>Equipamentos tecnológicos e audiovisuais</t>
-  </si>
-  <si>
-    <t>Instrumentos musicais</t>
-  </si>
-  <si>
     <t>Armamentos</t>
   </si>
   <si>
-    <t>Móveis e elementos de cenário</t>
-  </si>
-  <si>
-    <t>Utensílios culinários</t>
-  </si>
-  <si>
-    <t>Alimentos</t>
-  </si>
-  <si>
-    <t>Vestuário e acessórios</t>
-  </si>
-  <si>
-    <t>Atributo / Estado</t>
-  </si>
-  <si>
-    <t>Sentimentos e sensações</t>
-  </si>
-  <si>
-    <t>Condições físicas e de saúde</t>
-  </si>
-  <si>
     <t>Atributos e Características</t>
   </si>
   <si>
-    <t>Entidade Abstrata e Intelectual</t>
-  </si>
-  <si>
-    <t>Cultura e ideologias</t>
-  </si>
-  <si>
-    <t>Linguagem</t>
-  </si>
-  <si>
-    <t>Ciências e saberes</t>
-  </si>
-  <si>
-    <t>Estilos musicais, gêneros literários, manifestações artísticas</t>
-  </si>
-  <si>
-    <t>Entidades da Natureza</t>
-  </si>
-  <si>
-    <t>Elementos cósmicos</t>
-  </si>
-  <si>
-    <t>Plantas, frutos e vegetação</t>
-  </si>
-  <si>
-    <t>Espaços naturais</t>
-  </si>
-  <si>
     <t>Animais</t>
   </si>
   <si>
-    <t>Espaço/Posição</t>
-  </si>
-  <si>
     <t>Ranking</t>
   </si>
   <si>
-    <t>Local Geográfico</t>
-  </si>
-  <si>
-    <t>Locais instucionais</t>
-  </si>
-  <si>
-    <t>Espaço físico</t>
-  </si>
-  <si>
-    <t>Evento / Processo / Atividade</t>
-  </si>
-  <si>
     <t>Atividades Esportivas</t>
   </si>
   <si>
     <t>Ações</t>
   </si>
   <si>
-    <t>Processos e ocorrências</t>
-  </si>
-  <si>
-    <t>Eventos culturais e sociais</t>
-  </si>
-  <si>
-    <t>Atividades artísticas</t>
-  </si>
-  <si>
-    <t>Instituição, Estabelecimento e Organização</t>
-  </si>
-  <si>
-    <t>Estabelecimentos comerciais</t>
-  </si>
-  <si>
-    <t>Estabelecimentos esportivos</t>
-  </si>
-  <si>
-    <t>Entidades culturais e educacionais</t>
-  </si>
-  <si>
-    <t>Instituições religiosas e governamentais</t>
-  </si>
-  <si>
-    <t>Papéis</t>
-  </si>
-  <si>
-    <t>Funções sociais</t>
-  </si>
-  <si>
-    <t>Papéis em narrativa</t>
-  </si>
-  <si>
-    <t>Cargos e papéis religiosos, políticos e artísticos</t>
-  </si>
-  <si>
-    <t>Profissões e ocupações</t>
-  </si>
-  <si>
-    <t>Tempo / Fase</t>
-  </si>
-  <si>
-    <t>Fases de vida</t>
-  </si>
-  <si>
-    <t>Fases de competição</t>
-  </si>
-  <si>
     <t>Períodos Cronológicos</t>
   </si>
   <si>
-    <t>Seguimentos de Programas</t>
+    <t>Comidas</t>
+  </si>
+  <si>
+    <t>Gêneros Televisivos</t>
+  </si>
+  <si>
+    <t>Conceitos Gerais &gt; Artefatos</t>
+  </si>
+  <si>
+    <t>Artefatos Digitais</t>
+  </si>
+  <si>
+    <t>Artefatos Médicos</t>
+  </si>
+  <si>
+    <t>Artefatos Religiosos e Místicos</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Brinquedos</t>
+  </si>
+  <si>
+    <t>Comidas &gt; Temperos</t>
+  </si>
+  <si>
+    <t>Compostos Químicos Artificiais</t>
+  </si>
+  <si>
+    <t>Documentações</t>
+  </si>
+  <si>
+    <t>Equipamento Esportivo</t>
+  </si>
+  <si>
+    <t>Equipamentos Técnológicos</t>
+  </si>
+  <si>
+    <t>Estruturas Físicas</t>
+  </si>
+  <si>
+    <t>Ferramentas</t>
+  </si>
+  <si>
+    <t>Gráficos, Artes e Efeitos Visuais</t>
+  </si>
+  <si>
+    <t>Intrumentos Musicais</t>
+  </si>
+  <si>
+    <t>Meios de Comunicação</t>
+  </si>
+  <si>
+    <t>Móveis e Elementos de Cenário</t>
+  </si>
+  <si>
+    <t>Objetos Artísticos</t>
+  </si>
+  <si>
+    <t>Objetos do Cotidiano</t>
+  </si>
+  <si>
+    <t>Pratos de Comidas</t>
+  </si>
+  <si>
+    <t>Utensílios Culinários</t>
+  </si>
+  <si>
+    <t>Vestuário, Acessórios e Estilo</t>
+  </si>
+  <si>
+    <t>Vestuário, Acessórios e Estilo &gt; Vestimentas</t>
+  </si>
+  <si>
+    <t>Vestuário, Acessórios e Estilo &gt; Vestimenta Funcional</t>
+  </si>
+  <si>
+    <t>Veículos</t>
+  </si>
+  <si>
+    <t>Veículos &gt; Partes de Veículos</t>
+  </si>
+  <si>
+    <t>Conceitos Gerais &gt; Atributo / Estado</t>
+  </si>
+  <si>
+    <t>Categorias de Premiação</t>
+  </si>
+  <si>
+    <t>Condições Físicas e de Saúde</t>
+  </si>
+  <si>
+    <t>Identidades de Gênero</t>
+  </si>
+  <si>
+    <t>Orientações Sexuais</t>
+  </si>
+  <si>
+    <t>Pragas e Patógenos Vegetais</t>
+  </si>
+  <si>
+    <t>Sentimentos, Sensações e Sentidos</t>
+  </si>
+  <si>
+    <t>Tipos de Prova</t>
+  </si>
+  <si>
+    <t>Conceitos Gerais &gt; Entidades Abstratas e Intelectuais</t>
+  </si>
+  <si>
+    <t>Ciências e Saberes</t>
+  </si>
+  <si>
+    <t>Culturas e ideologias</t>
+  </si>
+  <si>
+    <t>Culturas e ideologias &gt; Patrimônios Culturais</t>
+  </si>
+  <si>
+    <t>Estilos Musicais</t>
+  </si>
+  <si>
+    <t>Gêneros Literários</t>
+  </si>
+  <si>
+    <t>Gêneros Televisivos &gt; Documentário</t>
+  </si>
+  <si>
+    <t>Gêneros Televisivos &gt; Entretenimento</t>
+  </si>
+  <si>
+    <t>Gêneros Televisivos &gt; Entretenimento &gt; Dramaturgia</t>
+  </si>
+  <si>
+    <t>Gêneros Televisivos &gt; Entretenimento &gt; Variedades</t>
+  </si>
+  <si>
+    <t>Gêneros Televisivos &gt; Jornalismo</t>
+  </si>
+  <si>
+    <t>Gêneros Televisivos &gt; Jornalismo &gt; Programas Jornalísticos</t>
+  </si>
+  <si>
+    <t>Gêneros Televisivos &gt; Jornalismo &gt; Telejornais</t>
+  </si>
+  <si>
+    <t>Gêneros Televisivos &gt; Propaganda</t>
+  </si>
+  <si>
+    <t>Gêneros Televisivos &gt; Propaganda &gt; Teasers</t>
+  </si>
+  <si>
+    <t>Linguagens</t>
+  </si>
+  <si>
+    <t>Linguagens &gt; Movimentos e Planos de Câmera</t>
+  </si>
+  <si>
+    <t>Linguagens &gt; Nomeações e Designações</t>
+  </si>
+  <si>
+    <t>Manifestações Artísticas</t>
+  </si>
+  <si>
+    <t>Símbolos</t>
+  </si>
+  <si>
+    <t>Conceitos Gerais &gt; Entidades da Natureza</t>
+  </si>
+  <si>
+    <t>Compostos Químicos</t>
+  </si>
+  <si>
+    <t>Elementos Cósmicos</t>
+  </si>
+  <si>
+    <t>Espaços Naturais</t>
+  </si>
+  <si>
+    <t>Estruturas Biológicas e Moleculares</t>
+  </si>
+  <si>
+    <t>Hortaliças</t>
+  </si>
+  <si>
+    <t>Microrganismos</t>
+  </si>
+  <si>
+    <t>Mineirais</t>
+  </si>
+  <si>
+    <t>Partes do Corpo</t>
+  </si>
+  <si>
+    <t>Partes do Corpo &gt; Partes de Corpos Humanos</t>
+  </si>
+  <si>
+    <t>Partes do Corpo &gt; Partes de Corpos Animais</t>
+  </si>
+  <si>
+    <t>Plantas, Frutos e Vegetação</t>
+  </si>
+  <si>
+    <t>Substâncias Biológicas</t>
+  </si>
+  <si>
+    <t>Tubérculos</t>
+  </si>
+  <si>
+    <t>Conceitos Gerais &gt; Espaço / Posição</t>
+  </si>
+  <si>
+    <t>Espaço Físico</t>
+  </si>
+  <si>
+    <t>Locais Geográficos</t>
+  </si>
+  <si>
+    <t>Locais Institucionais</t>
+  </si>
+  <si>
+    <t>Unidades de Medida</t>
+  </si>
+  <si>
+    <t>Conceitos Gerais &gt; Evento / Processo / Atividade</t>
+  </si>
+  <si>
+    <t>Atividades Artísticas</t>
+  </si>
+  <si>
+    <t>Atividades Esportivas &gt; Categorias de Modalidades Esportivas</t>
+  </si>
+  <si>
+    <t>Atividades Financeiras</t>
+  </si>
+  <si>
+    <t>Ações Esportivas</t>
+  </si>
+  <si>
+    <t>Ações ou Atividades Jornalísticas</t>
+  </si>
+  <si>
+    <t>Eventos Culturais e Sociais</t>
+  </si>
+  <si>
+    <t>Indicadores Econômicos e Impostos</t>
+  </si>
+  <si>
+    <t>Indicadores Sociais e Ambientais</t>
+  </si>
+  <si>
+    <t>Procedimentos Estéticos</t>
+  </si>
+  <si>
+    <t>Processos Discriminatórios</t>
+  </si>
+  <si>
+    <t>Processos e Ocorrências</t>
+  </si>
+  <si>
+    <t>Processos Tecnológicos</t>
+  </si>
+  <si>
+    <t>Processos Tecnológicos &gt; Biometria</t>
+  </si>
+  <si>
+    <t>Referências e Menções</t>
+  </si>
+  <si>
+    <t>Terapias e Procedimentos Médicos</t>
+  </si>
+  <si>
+    <t>Violência</t>
+  </si>
+  <si>
+    <t>Conceitos Gerais &gt; Fenômenos</t>
+  </si>
+  <si>
+    <t>Conceitos Gerais &gt; Instituição, Estabelecimento e Organização</t>
+  </si>
+  <si>
+    <t>Empresas</t>
+  </si>
+  <si>
+    <t>Entidades Administrativas</t>
+  </si>
+  <si>
+    <t>Entidades Culturais e Educacionais</t>
+  </si>
+  <si>
+    <t>Entidades Esportivas</t>
+  </si>
+  <si>
+    <t>Entidades Esportivas &gt; Instâncias Esportivas</t>
+  </si>
+  <si>
+    <t>Entidades Políticas</t>
+  </si>
+  <si>
+    <t>Estabelecimentos Comerciais</t>
+  </si>
+  <si>
+    <t>Estabelecimentos Esportivos</t>
+  </si>
+  <si>
+    <t>Grupos Artísticos</t>
+  </si>
+  <si>
+    <t>Instituições de Saúde</t>
+  </si>
+  <si>
+    <t>Instituições Governamentais e de Estado</t>
+  </si>
+  <si>
+    <t>Instituições Religiosas</t>
+  </si>
+  <si>
+    <t>Conceitos Gerais &gt; Papéis</t>
+  </si>
+  <si>
+    <t>Cargos</t>
+  </si>
+  <si>
+    <t>Funções Esportivas</t>
+  </si>
+  <si>
+    <t>Funções Sociais</t>
+  </si>
+  <si>
+    <t>Funções Sociais &gt; Relações de Parentesco</t>
+  </si>
+  <si>
+    <t>Nacionalidades</t>
+  </si>
+  <si>
+    <t>Papéis em Narrativa</t>
+  </si>
+  <si>
+    <t>Profissões</t>
+  </si>
+  <si>
+    <t>Profissões &gt; Profissões Esportivas</t>
+  </si>
+  <si>
+    <t>Conceitos Gerais &gt; Tempo / Fase</t>
+  </si>
+  <si>
+    <t>Fases de Competição</t>
+  </si>
+  <si>
+    <t>Fases de Vida</t>
+  </si>
+  <si>
+    <t>Segmentos de Programas</t>
+  </si>
+  <si>
+    <t>Conceitos Individuais &gt; Entidades Naturais, Jurídicas e Simbólicas</t>
+  </si>
+  <si>
+    <t>Unidades Monetárias</t>
+  </si>
+  <si>
+    <t>Documentos e Leis</t>
+  </si>
+  <si>
+    <t>Drogas e Composições Nomeadas</t>
+  </si>
+  <si>
+    <t>Nome Próprio de Animais</t>
+  </si>
+  <si>
+    <t>Nome Próprio de Fenômenos</t>
+  </si>
+  <si>
+    <t>Nomes de Objetos</t>
+  </si>
+  <si>
+    <t>Representações Simbólicas</t>
+  </si>
+  <si>
+    <t>Conceitos Individuais &gt; Grupos Sociais Nomeados</t>
+  </si>
+  <si>
+    <t>Grupo Esportivo</t>
+  </si>
+  <si>
+    <t>Grupo Étnico</t>
+  </si>
+  <si>
+    <t>Marcas, Produtos e Serviços</t>
+  </si>
+  <si>
+    <t>Nomes de Instituições e Organizações</t>
+  </si>
+  <si>
+    <t>Conceitos Individuais &gt; Lugares</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Continente</t>
+  </si>
+  <si>
+    <t>Corpos Celestes e Espaço Sideral</t>
+  </si>
+  <si>
+    <t>Estado e Demais Subdivisões Administrativas</t>
+  </si>
+  <si>
+    <t>Locais Públicos e Privados</t>
+  </si>
+  <si>
+    <t>Lugares Ficcionais</t>
+  </si>
+  <si>
+    <t>Outras Divisões Administrativas</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Via Pública</t>
+  </si>
+  <si>
+    <t>Nomes de Grupos Artísticos</t>
+  </si>
+  <si>
+    <t>Conceitos Individuais &gt; Pessoas</t>
+  </si>
+  <si>
+    <t>Conceitos Individuais &gt; Produtos Audiovisuais e artísticos</t>
+  </si>
+  <si>
+    <t>Eventos Esportivos &gt; Automobilismo</t>
+  </si>
+  <si>
+    <t>Eventos Esportivos &gt; Futebol</t>
+  </si>
+  <si>
+    <t>Eventos Esportivos &gt; Lutas</t>
+  </si>
+  <si>
+    <t>Eventos Esportivos &gt; Outros Esportes</t>
+  </si>
+  <si>
+    <t>Canais</t>
+  </si>
+  <si>
+    <t>Eventos - Desastres (Climáticos) - Casos Jornalísticos</t>
+  </si>
+  <si>
+    <t>Eventos Gerais - Premiação</t>
+  </si>
+  <si>
+    <t>Filmes</t>
+  </si>
+  <si>
+    <t>Jogos</t>
+  </si>
+  <si>
+    <t>Músicas</t>
+  </si>
+  <si>
+    <t>Obras de Arte</t>
+  </si>
+  <si>
+    <t>Obras Literárias</t>
+  </si>
+  <si>
+    <t>Personagens</t>
+  </si>
+  <si>
+    <t>Programas</t>
+  </si>
+  <si>
+    <t>Quadros de Programas / Série de Reportagens / Cases Jornalísticos</t>
+  </si>
+  <si>
+    <t>Séries</t>
   </si>
 </sst>
 </file>
@@ -259,8 +613,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26B7CA65-3A07-4405-9BE2-E22E83DCAC8C}" name="Tabela1" displayName="Tabela1" ref="A1:B42" totalsRowShown="0">
-  <autoFilter ref="A1:B42" xr:uid="{26B7CA65-3A07-4405-9BE2-E22E83DCAC8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26B7CA65-3A07-4405-9BE2-E22E83DCAC8C}" name="Tabela1" displayName="Tabela1" ref="A1:B157" totalsRowShown="0">
+  <autoFilter ref="A1:B157" xr:uid="{26B7CA65-3A07-4405-9BE2-E22E83DCAC8C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -589,352 +943,1266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A143" sqref="A143:A157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
       <c r="B30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>154</v>
+      </c>
+      <c r="B157" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/categorias.xlsx
+++ b/categorias.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcarnevale\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E78114D-130E-43A6-BFF7-C97B67C70BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73825F0-224C-4AAC-AF7F-EAB63195D130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elements!$A$1:$B$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elements!$A$1:$B$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="176">
   <si>
     <t>Classe</t>
   </si>
@@ -549,6 +549,21 @@
   </si>
   <si>
     <t>Séries</t>
+  </si>
+  <si>
+    <t>Conceitos Individuais &gt; Eventos Históricos</t>
+  </si>
+  <si>
+    <t>Nomes de Instituições e Organizações &gt; Partidos Políticos</t>
+  </si>
+  <si>
+    <t>Etapas de Eventos Esportivos</t>
+  </si>
+  <si>
+    <t>Comunidades e Assentamentos</t>
+  </si>
+  <si>
+    <t>Entidades Geográficas</t>
   </si>
 </sst>
 </file>
@@ -613,8 +628,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26B7CA65-3A07-4405-9BE2-E22E83DCAC8C}" name="Tabela1" displayName="Tabela1" ref="A1:B157" totalsRowShown="0">
-  <autoFilter ref="A1:B157" xr:uid="{26B7CA65-3A07-4405-9BE2-E22E83DCAC8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26B7CA65-3A07-4405-9BE2-E22E83DCAC8C}" name="Tabela1" displayName="Tabela1" ref="A1:B162" totalsRowShown="0">
+  <autoFilter ref="A1:B162" xr:uid="{26B7CA65-3A07-4405-9BE2-E22E83DCAC8C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -943,19 +958,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:A157"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -971,7 +986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -979,7 +994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -987,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -995,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1003,7 +1018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1019,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1027,7 +1042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1035,7 +1050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1043,7 +1058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +1082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1075,7 +1090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1099,7 +1114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1123,7 +1138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1139,7 +1154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1147,7 +1162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1163,7 +1178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1171,7 +1186,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1179,7 +1194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1187,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1195,7 +1210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1203,7 +1218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1211,7 +1226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1219,7 +1234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1227,7 +1242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1243,7 +1258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1251,7 +1266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1259,7 +1274,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1267,7 +1282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1275,7 +1290,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1283,7 +1298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1291,7 +1306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1299,7 +1314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1307,7 +1322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1315,7 +1330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1323,7 +1338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1331,7 +1346,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1339,7 +1354,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -1347,7 +1362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -1355,7 +1370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -1363,7 +1378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -1371,7 +1386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1379,7 +1394,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -1387,7 +1402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
@@ -1395,7 +1410,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -1403,7 +1418,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -1411,7 +1426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1427,7 +1442,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1443,7 +1458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1451,7 +1466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1467,7 +1482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1475,7 +1490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1483,7 +1498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -1499,7 +1514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -1515,7 +1530,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -1523,7 +1538,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -1531,7 +1546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -1539,7 +1554,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1547,7 +1562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -1555,7 +1570,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -1563,7 +1578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -1571,7 +1586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -1579,7 +1594,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -1587,7 +1602,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -1595,7 +1610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -1603,7 +1618,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -1611,7 +1626,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1619,7 +1634,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -1627,7 +1642,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1635,7 +1650,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -1643,7 +1658,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -1651,7 +1666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -1659,7 +1674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -1675,7 +1690,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -1683,7 +1698,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -1691,7 +1706,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -1699,12 +1714,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>102</v>
       </c>
@@ -1712,7 +1727,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -1720,7 +1735,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -1728,7 +1743,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -1736,7 +1751,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -1744,7 +1759,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -1752,7 +1767,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -1760,7 +1775,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -1768,7 +1783,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -1776,7 +1791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -1784,7 +1799,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -1792,7 +1807,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -1800,7 +1815,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -1808,7 +1823,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -1816,7 +1831,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -1824,7 +1839,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -1832,7 +1847,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -1840,7 +1855,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -1848,7 +1863,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -1856,7 +1871,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -1864,7 +1879,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -1872,7 +1887,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -1880,7 +1895,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>124</v>
       </c>
@@ -1888,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -1896,7 +1911,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -1904,7 +1919,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -1912,7 +1927,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -1920,7 +1935,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -1928,7 +1943,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -1936,7 +1951,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -1944,7 +1959,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -1952,7 +1967,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -1960,7 +1975,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -1968,7 +1983,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -1976,7 +1991,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -1984,7 +1999,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -1992,217 +2007,254 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>141</v>
       </c>
       <c r="B137" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
       <c r="B140" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>154</v>
-      </c>
-      <c r="B142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>154</v>
-      </c>
-      <c r="B143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>154</v>
-      </c>
-      <c r="B144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>154</v>
       </c>
       <c r="B145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>154</v>
       </c>
       <c r="B157" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>154</v>
+      </c>
+      <c r="B160" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>154</v>
+      </c>
+      <c r="B161" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
